--- a/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
+++ b/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -235,22 +235,34 @@
     <t>11:30PM</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>Spring core</t>
-  </si>
-  <si>
     <t>9:00AM</t>
   </si>
   <si>
     <t>11.00AM</t>
   </si>
   <si>
-    <t>Spring core cont</t>
-  </si>
-  <si>
     <t>Khang Huynh - T104898</t>
+  </si>
+  <si>
+    <t>3:30PM</t>
+  </si>
+  <si>
+    <t>Android basic</t>
+  </si>
+  <si>
+    <t>8:30PM</t>
+  </si>
+  <si>
+    <t>3:00PM</t>
+  </si>
+  <si>
+    <t>Java overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring core </t>
+  </si>
+  <si>
+    <t>Java Overview</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1025,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1143,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1199,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -1295,7 +1307,7 @@
       <c r="K7" s="60"/>
       <c r="L7" s="9">
         <f>SUM(L8:L40)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
@@ -1312,10 +1324,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E8" s="26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>12</v>
@@ -1375,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E10" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>25</v>
@@ -1394,7 +1406,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="4">
         <f>SUM(E8:E15)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
@@ -1418,9 +1430,11 @@
         <v>34</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>79</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="15"/>
       <c r="K11" s="2"/>
@@ -1433,10 +1447,10 @@
         <v>41591</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
@@ -1445,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="2"/>
@@ -1459,12 +1473,20 @@
       <c r="B13" s="10">
         <v>41591</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
+      <c r="C13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>

--- a/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
+++ b/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Java Overview</t>
+  </si>
+  <si>
+    <t>1:30PM</t>
+  </si>
+  <si>
+    <t>Review with team technical issues: Java, Hibernate, Spring, Maven</t>
   </si>
 </sst>
 </file>
@@ -625,6 +631,33 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -670,24 +703,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,15 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1025,7 +1031,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1164,77 +1170,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1272,10 +1278,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1301,20 +1307,20 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="60"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="9">
-        <f>SUM(L8:L40)</f>
-        <v>12</v>
+        <f>SUM(L8:L41)</f>
+        <v>14</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
+      <c r="A8" s="65">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1350,7 +1356,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1405,15 +1411,15 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="4">
-        <f>SUM(E8:E15)</f>
-        <v>11</v>
+        <f>SUM(E8:E16)</f>
+        <v>13</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1468,58 +1474,61 @@
       <c r="L12" s="4"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+    <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
       <c r="B13" s="10">
         <v>41591</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="26">
+        <v>2</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="10">
+        <v>41591</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D14" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E14" s="26">
         <v>0.5</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="23">
-        <f>SUM(E16:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="10">
-        <v>41592</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E21:E25)</f>
+        <f>SUM(E17:E21)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1527,9 +1536,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="10">
-        <v>41593</v>
+        <v>41592</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1539,11 +1548,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E26:E30)</f>
+        <f>SUM(E22:E26)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1551,25 +1560,23 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19">
-        <v>41596</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="10">
+        <v>41593</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E31:E35)</f>
+        <f>SUM(E27:E31)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1577,9 +1584,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="68">
+        <v>3</v>
+      </c>
       <c r="B17" s="19">
-        <v>41597</v>
+        <v>41596</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1589,11 +1598,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E36:E40)</f>
+        <f>SUM(E32:E36)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1601,9 +1610,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="19">
-        <v>41598</v>
+        <v>41597</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1613,11 +1622,11 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E41:E45)</f>
+        <f>SUM(E37:E41)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1625,9 +1634,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="19">
-        <v>41599</v>
+        <v>41598</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1637,11 +1646,11 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E46:E50)</f>
+        <f>SUM(E42:E46)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1649,9 +1658,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="19">
-        <v>41600</v>
+        <v>41599</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1661,11 +1670,11 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E51:E55)</f>
+        <f>SUM(E47:E51)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1673,25 +1682,23 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="19">
+        <v>41600</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="15" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E52:E56)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1699,9 +1706,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="36">
+        <v>4</v>
+      </c>
       <c r="B22" s="10">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1711,11 +1720,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1723,9 +1732,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="10">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1735,11 +1744,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1747,9 +1756,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="10">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1759,11 +1768,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E67:E71)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1771,9 +1780,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="10">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1783,11 +1792,11 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E72:E76)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1795,25 +1804,23 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
-        <v>5</v>
-      </c>
-      <c r="B26" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E77:E81)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1821,9 +1828,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+      <c r="A27" s="33">
+        <v>5</v>
+      </c>
       <c r="B27" s="19">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1833,11 +1842,11 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E82:E86)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -1845,9 +1854,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="19">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1857,11 +1866,11 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E87:E91)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -1869,9 +1878,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="19">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1881,11 +1890,11 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E92:E96)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -1893,9 +1902,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="19">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1905,11 +1914,11 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E97:E101)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -1917,25 +1926,23 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
-        <v>6</v>
-      </c>
-      <c r="B31" s="10">
-        <v>41617</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E102:E106)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -1943,9 +1950,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="36">
+        <v>6</v>
+      </c>
       <c r="B32" s="10">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1955,11 +1964,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E107:E111)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -1967,9 +1976,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="10">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1979,11 +1988,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E112:E116)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -1991,9 +2000,9 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="10">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2003,11 +2012,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E117:E121)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2015,9 +2024,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="10">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2027,11 +2036,11 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E122:E126)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2039,25 +2048,23 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="51">
-        <v>7</v>
-      </c>
-      <c r="B36" s="19">
-        <v>41624</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E127:E131)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2065,9 +2072,11 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
+      <c r="A37" s="33">
+        <v>7</v>
+      </c>
       <c r="B37" s="19">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2077,11 +2086,11 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E132:E136)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2089,9 +2098,9 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="19">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2101,11 +2110,11 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="23">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E137:E141)</f>
         <v>0</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -2113,9 +2122,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="19">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2125,11 +2134,11 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="23">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E142:E146)</f>
         <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -2137,9 +2146,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="19">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2149,11 +2158,11 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="23">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E147:E151)</f>
         <v>0</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -2161,24 +2170,35 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="35"/>
+      <c r="B41" s="19">
+        <v>41628</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="23">
+        <f>SUM(E152:E156)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
         <v>8</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B42" s="10">
         <v>41631</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="10">
-        <v>41632</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2189,9 +2209,9 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="10">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2202,9 +2222,9 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="10">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2215,9 +2235,9 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="10">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2228,24 +2248,24 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="51">
+      <c r="A46" s="38"/>
+      <c r="B46" s="10">
+        <v>41635</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
         <v>9</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B47" s="19">
         <v>41638</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="19">
-        <v>41639</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2256,9 +2276,9 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="19">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2269,9 +2289,9 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="19">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2282,9 +2302,9 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="19">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2295,24 +2315,24 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="35"/>
+      <c r="B51" s="19">
+        <v>41642</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="36">
         <v>10</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B52" s="10">
         <v>41645</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="10">
-        <v>41646</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2323,9 +2343,9 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="10">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2336,9 +2356,9 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="10">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2349,9 +2369,9 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="10">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2362,24 +2382,24 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="51">
+      <c r="A56" s="38"/>
+      <c r="B56" s="10">
+        <v>41649</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
         <v>11</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B57" s="19">
         <v>41652</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="52"/>
-      <c r="B57" s="19">
-        <v>41653</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2390,9 +2410,9 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="52"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="19">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2403,9 +2423,9 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="19">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2416,9 +2436,9 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="19">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2429,24 +2449,24 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="48">
+      <c r="A61" s="35"/>
+      <c r="B61" s="19">
+        <v>41656</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="36">
         <v>12</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B62" s="10">
         <v>41659</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="10">
-        <v>41660</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2457,9 +2477,9 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="10">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2470,9 +2490,9 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="10">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2483,9 +2503,9 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="10">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2496,26 +2516,24 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="51">
+      <c r="A66" s="38"/>
+      <c r="B66" s="10">
+        <v>41663</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
         <v>13</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B67" s="19">
         <v>41666</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
-      <c r="B67" s="19">
-        <v>41667</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2528,9 +2546,9 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="19">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2543,9 +2561,9 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="19">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2558,9 +2576,9 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="19">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2573,26 +2591,26 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="48">
+      <c r="A71" s="35"/>
+      <c r="B71" s="19">
+        <v>41670</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="36">
         <v>14</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B72" s="10">
         <v>41673</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="10">
-        <v>41674</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2605,9 +2623,9 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="10">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2620,9 +2638,9 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="10">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2635,9 +2653,9 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="10">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2650,24 +2668,26 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="51">
+      <c r="A76" s="38"/>
+      <c r="B76" s="10">
+        <v>41677</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
         <v>15</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B77" s="19">
         <v>41680</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
-      <c r="B77" s="19">
-        <v>41681</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2678,9 +2698,9 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="52"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="19">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2691,9 +2711,9 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="52"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="19">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2704,9 +2724,9 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="19">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2717,24 +2737,24 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
+      <c r="A81" s="35"/>
+      <c r="B81" s="19">
+        <v>41684</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="36">
         <v>16</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B82" s="10">
         <v>41687</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="10">
-        <v>41688</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2745,9 +2765,9 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="10">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2758,9 +2778,9 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="10">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2771,9 +2791,9 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="10">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2784,24 +2804,24 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="51">
+      <c r="A86" s="38"/>
+      <c r="B86" s="10">
+        <v>41691</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="33">
         <v>17</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B87" s="19">
         <v>41694</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="52"/>
-      <c r="B87" s="19">
-        <v>41695</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2812,9 +2832,9 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="52"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="19">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2825,9 +2845,9 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="52"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="19">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2838,9 +2858,9 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="19">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2851,24 +2871,24 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="48">
+      <c r="A91" s="35"/>
+      <c r="B91" s="19">
+        <v>41698</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="36">
         <v>18</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B92" s="10">
         <v>41701</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="10">
-        <v>41702</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2879,9 +2899,9 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="10">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2892,9 +2912,9 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="10">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2905,9 +2925,9 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="10">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2918,24 +2938,24 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="51">
+      <c r="A96" s="38"/>
+      <c r="B96" s="10">
+        <v>41705</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="33">
         <v>19</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B97" s="19">
         <v>41708</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="52"/>
-      <c r="B97" s="19">
-        <v>41709</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2946,9 +2966,9 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="52"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="19">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2959,9 +2979,9 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="52"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="19">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2972,9 +2992,9 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="19">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -2985,24 +3005,24 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="48">
+      <c r="A101" s="35"/>
+      <c r="B101" s="19">
+        <v>41712</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="36">
         <v>20</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B102" s="10">
         <v>41715</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
-      <c r="B102" s="10">
-        <v>41716</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3013,9 +3033,9 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="10">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3026,9 +3046,9 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="10">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3039,9 +3059,9 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="10">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3052,24 +3072,24 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="51">
+      <c r="A106" s="38"/>
+      <c r="B106" s="10">
+        <v>41719</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="33">
         <v>21</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B107" s="19">
         <v>41722</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="52"/>
-      <c r="B107" s="19">
-        <v>41723</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3080,9 +3100,9 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="52"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="19">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3093,9 +3113,9 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="52"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="19">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3106,9 +3126,9 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="19">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3119,24 +3139,24 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="48">
+      <c r="A111" s="35"/>
+      <c r="B111" s="19">
+        <v>41726</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="36">
         <v>22</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B112" s="10">
         <v>41729</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="10">
-        <v>41730</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3147,9 +3167,9 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="37"/>
       <c r="B113" s="10">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3160,9 +3180,9 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="10">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3173,9 +3193,9 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
+      <c r="A115" s="37"/>
       <c r="B115" s="10">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3186,24 +3206,24 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="51">
+      <c r="A116" s="38"/>
+      <c r="B116" s="10">
+        <v>41733</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="33">
         <v>23</v>
       </c>
-      <c r="B116" s="19">
+      <c r="B117" s="19">
         <v>41736</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="52"/>
-      <c r="B117" s="19">
-        <v>41737</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3214,9 +3234,9 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="52"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="19">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3227,9 +3247,9 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="52"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="19">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3240,9 +3260,9 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="19">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3253,24 +3273,24 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="48">
+      <c r="A121" s="35"/>
+      <c r="B121" s="19">
+        <v>41740</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="36">
         <v>24</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B122" s="10">
         <v>41743</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="B122" s="10">
-        <v>41744</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3281,9 +3301,9 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="10">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3294,9 +3314,9 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
+      <c r="A124" s="37"/>
       <c r="B124" s="10">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3307,9 +3327,9 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="10">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3320,24 +3340,24 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="51">
+      <c r="A126" s="38"/>
+      <c r="B126" s="10">
+        <v>41747</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="33">
         <v>25</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B127" s="19">
         <v>41750</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="52"/>
-      <c r="B127" s="19">
-        <v>41751</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3348,9 +3368,9 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="19">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3361,9 +3381,9 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="19">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3374,9 +3394,9 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="19">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3387,24 +3407,24 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="48">
+      <c r="A131" s="35"/>
+      <c r="B131" s="19">
+        <v>41754</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="36">
         <v>26</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B132" s="10">
         <v>41757</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="10">
-        <v>41758</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3415,9 +3435,9 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
+      <c r="A133" s="37"/>
       <c r="B133" s="10">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3428,9 +3448,9 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
+      <c r="A134" s="37"/>
       <c r="B134" s="10">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3441,9 +3461,9 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="37"/>
       <c r="B135" s="10">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3454,24 +3474,24 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="51">
+      <c r="A136" s="38"/>
+      <c r="B136" s="10">
+        <v>41761</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="33">
         <v>27</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B137" s="19">
         <v>41764</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="52"/>
-      <c r="B137" s="19">
-        <v>41765</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3482,9 +3502,9 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="52"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="19">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3495,9 +3515,9 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="52"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="19">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3508,9 +3528,9 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="19">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3521,24 +3541,24 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="48">
+      <c r="A141" s="35"/>
+      <c r="B141" s="19">
+        <v>41768</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="36">
         <v>28</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B142" s="10">
         <v>41771</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
-      <c r="B142" s="10">
-        <v>41772</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3549,9 +3569,9 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
+      <c r="A143" s="37"/>
       <c r="B143" s="10">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3562,9 +3582,9 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
+      <c r="A144" s="37"/>
       <c r="B144" s="10">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3575,9 +3595,9 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
+      <c r="A145" s="37"/>
       <c r="B145" s="10">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3588,24 +3608,24 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="51">
+      <c r="A146" s="38"/>
+      <c r="B146" s="10">
+        <v>41775</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="33">
         <v>29</v>
       </c>
-      <c r="B146" s="19">
+      <c r="B147" s="19">
         <v>41778</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="52"/>
-      <c r="B147" s="19">
-        <v>41779</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3616,9 +3636,9 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="52"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="19">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -3629,9 +3649,9 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="52"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="19">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3642,9 +3662,9 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="19">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3655,24 +3675,24 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="69">
+      <c r="A151" s="35"/>
+      <c r="B151" s="19">
+        <v>41782</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="39">
         <v>30</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B152" s="10">
         <v>41785</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
-      <c r="B152" s="10">
-        <v>41786</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3683,9 +3703,9 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="70"/>
+      <c r="A153" s="40"/>
       <c r="B153" s="10">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3696,9 +3716,9 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="70"/>
+      <c r="A154" s="40"/>
       <c r="B154" s="10">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3709,9 +3729,9 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="71"/>
+      <c r="A155" s="40"/>
       <c r="B155" s="10">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3722,218 +3742,231 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B156" s="20">
+      <c r="A156" s="41"/>
+      <c r="B156" s="10">
+        <v>41789</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B157" s="20">
         <v>41790</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B157" s="10">
-        <v>41791</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B158" s="10">
-        <v>41792</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B159" s="10">
-        <v>41793</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
-        <v>41794</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="10">
-        <v>41795</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="10">
-        <v>41796</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
-        <v>41797</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
-        <v>41798</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="10">
-        <v>41799</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="10">
-        <v>41800</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>41801</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="10">
-        <v>41802</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>41803</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>41804</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>41805</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
-        <v>41806</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>41807</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="10">
-        <v>41808</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>41809</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>41810</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41811</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41812</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41813</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41814</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41815</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41816</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41817</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41818</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41819</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41820</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
-        <v>41821</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>41822</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>41823</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B191" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
+++ b/1. Project management/9. Timelog/AS_PM_Time_Log_KhangHuynh.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>Week</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Review with team technical issues: Java, Hibernate, Spring, Maven</t>
+  </si>
+  <si>
+    <t>10:15AM</t>
+  </si>
+  <si>
+    <t>Present work that team completed in this week</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF0070C0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -555,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -615,15 +621,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -631,6 +628,60 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,14 +691,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,95 +745,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,7 +1029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,7 +1040,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,98 +1050,98 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1146,10 +1155,10 @@
   <dimension ref="A1:M191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1170,77 +1179,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="48" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1278,10 +1287,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1307,35 +1316,35 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="9">
         <f>SUM(L8:L41)</f>
-        <v>14</v>
+        <v>15.25</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="A8" s="59">
         <v>2</v>
       </c>
       <c r="B8" s="10">
         <v>41589</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="70">
         <v>2.5</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -1356,20 +1365,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="70">
         <v>2.5</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -1385,20 +1394,20 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="70">
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -1412,27 +1421,27 @@
       <c r="K10" s="2"/>
       <c r="L10" s="4">
         <f>SUM(E8:E16)</f>
-        <v>13</v>
+        <v>14.25</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="70">
         <v>1.5</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="18" t="s">
@@ -1448,20 +1457,20 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="70">
         <v>2</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1475,20 +1484,20 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="10">
         <v>41591</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="70">
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -1502,20 +1511,20 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="10">
         <v>41591</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="70">
         <v>0.5</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -1536,15 +1545,25 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="10">
         <v>41592</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="70">
+        <v>1.25</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>83</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
@@ -1560,7 +1579,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="10">
         <v>41593</v>
       </c>
@@ -1584,7 +1603,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="68">
+      <c r="A17" s="62">
         <v>3</v>
       </c>
       <c r="B17" s="19">
@@ -1610,7 +1629,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="19">
         <v>41597</v>
       </c>
@@ -1634,7 +1653,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="19">
         <v>41598</v>
       </c>
@@ -1658,7 +1677,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="19">
         <v>41599</v>
       </c>
@@ -1682,7 +1701,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="19">
         <v>41600</v>
       </c>
@@ -1706,7 +1725,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="45">
         <v>4</v>
       </c>
       <c r="B22" s="10">
@@ -1732,7 +1751,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="10">
         <v>41604</v>
       </c>
@@ -1756,7 +1775,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="10">
         <v>41605</v>
       </c>
@@ -1780,7 +1799,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="10">
         <v>41606</v>
       </c>
@@ -1804,7 +1823,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="10">
         <v>41607</v>
       </c>
@@ -1828,7 +1847,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="48">
         <v>5</v>
       </c>
       <c r="B27" s="19">
@@ -1854,7 +1873,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="19">
         <v>41611</v>
       </c>
@@ -1878,7 +1897,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="19">
         <v>41612</v>
       </c>
@@ -1902,7 +1921,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="19">
         <v>41613</v>
       </c>
@@ -1926,7 +1945,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="19">
         <v>41614</v>
       </c>
@@ -1950,7 +1969,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="45">
         <v>6</v>
       </c>
       <c r="B32" s="10">
@@ -1976,7 +1995,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="10">
         <v>41618</v>
       </c>
@@ -2000,7 +2019,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="10">
         <v>41619</v>
       </c>
@@ -2024,7 +2043,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="10">
         <v>41620</v>
       </c>
@@ -2048,7 +2067,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="10">
         <v>41621</v>
       </c>
@@ -2072,7 +2091,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="48">
         <v>7</v>
       </c>
       <c r="B37" s="19">
@@ -2098,7 +2117,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="19">
         <v>41625</v>
       </c>
@@ -2122,7 +2141,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="19">
         <v>41626</v>
       </c>
@@ -2146,7 +2165,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="19">
         <v>41627</v>
       </c>
@@ -2170,7 +2189,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="19">
         <v>41628</v>
       </c>
@@ -2194,7 +2213,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+      <c r="A42" s="45">
         <v>8</v>
       </c>
       <c r="B42" s="10">
@@ -2209,7 +2228,7 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="10">
         <v>41632</v>
       </c>
@@ -2222,7 +2241,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="10">
         <v>41633</v>
       </c>
@@ -2235,7 +2254,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="10">
         <v>41634</v>
       </c>
@@ -2248,7 +2267,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="10">
         <v>41635</v>
       </c>
@@ -2261,7 +2280,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="A47" s="48">
         <v>9</v>
       </c>
       <c r="B47" s="19">
@@ -2276,7 +2295,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="19">
         <v>41639</v>
       </c>
@@ -2289,7 +2308,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="19">
         <v>41640</v>
       </c>
@@ -2302,7 +2321,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="19">
         <v>41641</v>
       </c>
@@ -2315,7 +2334,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="19">
         <v>41642</v>
       </c>
@@ -2328,7 +2347,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="45">
         <v>10</v>
       </c>
       <c r="B52" s="10">
@@ -2343,7 +2362,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="10">
         <v>41646</v>
       </c>
@@ -2356,7 +2375,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="10">
         <v>41647</v>
       </c>
@@ -2369,7 +2388,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="10">
         <v>41648</v>
       </c>
@@ -2382,7 +2401,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="10">
         <v>41649</v>
       </c>
@@ -2395,7 +2414,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+      <c r="A57" s="48">
         <v>11</v>
       </c>
       <c r="B57" s="19">
@@ -2410,7 +2429,7 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="19">
         <v>41653</v>
       </c>
@@ -2423,7 +2442,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="19">
         <v>41654</v>
       </c>
@@ -2436,7 +2455,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="19">
         <v>41655</v>
       </c>
@@ -2449,7 +2468,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="19">
         <v>41656</v>
       </c>
@@ -2462,7 +2481,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+      <c r="A62" s="45">
         <v>12</v>
       </c>
       <c r="B62" s="10">
@@ -2477,7 +2496,7 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="10">
         <v>41660</v>
       </c>
@@ -2490,7 +2509,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="10">
         <v>41661</v>
       </c>
@@ -2503,7 +2522,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="10">
         <v>41662</v>
       </c>
@@ -2516,7 +2535,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="10">
         <v>41663</v>
       </c>
@@ -2529,7 +2548,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
+      <c r="A67" s="48">
         <v>13</v>
       </c>
       <c r="B67" s="19">
@@ -2546,7 +2565,7 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="19">
         <v>41667</v>
       </c>
@@ -2561,7 +2580,7 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="19">
         <v>41668</v>
       </c>
@@ -2576,7 +2595,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="19">
         <v>41669</v>
       </c>
@@ -2591,7 +2610,7 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="50"/>
       <c r="B71" s="19">
         <v>41670</v>
       </c>
@@ -2606,7 +2625,7 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="36">
+      <c r="A72" s="45">
         <v>14</v>
       </c>
       <c r="B72" s="10">
@@ -2623,7 +2642,7 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="10">
         <v>41674</v>
       </c>
@@ -2638,7 +2657,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="10">
         <v>41675</v>
       </c>
@@ -2653,7 +2672,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="10">
         <v>41676</v>
       </c>
@@ -2668,7 +2687,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="10">
         <v>41677</v>
       </c>
@@ -2683,7 +2702,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
+      <c r="A77" s="48">
         <v>15</v>
       </c>
       <c r="B77" s="19">
@@ -2698,7 +2717,7 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="19">
         <v>41681</v>
       </c>
@@ -2711,7 +2730,7 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="19">
         <v>41682</v>
       </c>
@@ -2724,7 +2743,7 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="19">
         <v>41683</v>
       </c>
@@ -2737,7 +2756,7 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
+      <c r="A81" s="50"/>
       <c r="B81" s="19">
         <v>41684</v>
       </c>
@@ -2750,7 +2769,7 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="36">
+      <c r="A82" s="45">
         <v>16</v>
       </c>
       <c r="B82" s="10">
@@ -2765,7 +2784,7 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="10">
         <v>41688</v>
       </c>
@@ -2778,7 +2797,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="10">
         <v>41689</v>
       </c>
@@ -2791,7 +2810,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="10">
         <v>41690</v>
       </c>
@@ -2804,7 +2823,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="10">
         <v>41691</v>
       </c>
@@ -2817,7 +2836,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
+      <c r="A87" s="48">
         <v>17</v>
       </c>
       <c r="B87" s="19">
@@ -2832,7 +2851,7 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="19">
         <v>41695</v>
       </c>
@@ -2845,7 +2864,7 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="19">
         <v>41696</v>
       </c>
@@ -2858,7 +2877,7 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="19">
         <v>41697</v>
       </c>
@@ -2871,7 +2890,7 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="50"/>
       <c r="B91" s="19">
         <v>41698</v>
       </c>
@@ -2884,7 +2903,7 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="36">
+      <c r="A92" s="45">
         <v>18</v>
       </c>
       <c r="B92" s="10">
@@ -2899,7 +2918,7 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+      <c r="A93" s="46"/>
       <c r="B93" s="10">
         <v>41702</v>
       </c>
@@ -2912,7 +2931,7 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="10">
         <v>41703</v>
       </c>
@@ -2925,7 +2944,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="10">
         <v>41704</v>
       </c>
@@ -2938,7 +2957,7 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="38"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="10">
         <v>41705</v>
       </c>
@@ -2951,7 +2970,7 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="33">
+      <c r="A97" s="48">
         <v>19</v>
       </c>
       <c r="B97" s="19">
@@ -2966,7 +2985,7 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="19">
         <v>41709</v>
       </c>
@@ -2979,7 +2998,7 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="19">
         <v>41710</v>
       </c>
@@ -2992,7 +3011,7 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="19">
         <v>41711</v>
       </c>
@@ -3005,7 +3024,7 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="19">
         <v>41712</v>
       </c>
@@ -3018,7 +3037,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="36">
+      <c r="A102" s="45">
         <v>20</v>
       </c>
       <c r="B102" s="10">
@@ -3033,7 +3052,7 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="10">
         <v>41716</v>
       </c>
@@ -3046,7 +3065,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="46"/>
       <c r="B104" s="10">
         <v>41717</v>
       </c>
@@ -3059,7 +3078,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="10">
         <v>41718</v>
       </c>
@@ -3072,7 +3091,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="38"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="10">
         <v>41719</v>
       </c>
@@ -3085,7 +3104,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="33">
+      <c r="A107" s="48">
         <v>21</v>
       </c>
       <c r="B107" s="19">
@@ -3100,7 +3119,7 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
+      <c r="A108" s="49"/>
       <c r="B108" s="19">
         <v>41723</v>
       </c>
@@ -3113,7 +3132,7 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="49"/>
       <c r="B109" s="19">
         <v>41724</v>
       </c>
@@ -3126,7 +3145,7 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="49"/>
       <c r="B110" s="19">
         <v>41725</v>
       </c>
@@ -3139,7 +3158,7 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="19">
         <v>41726</v>
       </c>
@@ -3152,7 +3171,7 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="36">
+      <c r="A112" s="45">
         <v>22</v>
       </c>
       <c r="B112" s="10">
@@ -3167,7 +3186,7 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="10">
         <v>41730</v>
       </c>
@@ -3180,7 +3199,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="10">
         <v>41731</v>
       </c>
@@ -3193,7 +3212,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="10">
         <v>41732</v>
       </c>
@@ -3206,7 +3225,7 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="10">
         <v>41733</v>
       </c>
@@ -3219,7 +3238,7 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="33">
+      <c r="A117" s="48">
         <v>23</v>
       </c>
       <c r="B117" s="19">
@@ -3234,7 +3253,7 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="19">
         <v>41737</v>
       </c>
@@ -3247,7 +3266,7 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="19">
         <v>41738</v>
       </c>
@@ -3260,7 +3279,7 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="49"/>
       <c r="B120" s="19">
         <v>41739</v>
       </c>
@@ -3273,7 +3292,7 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="19">
         <v>41740</v>
       </c>
@@ -3286,7 +3305,7 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="36">
+      <c r="A122" s="45">
         <v>24</v>
       </c>
       <c r="B122" s="10">
@@ -3301,7 +3320,7 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="10">
         <v>41744</v>
       </c>
@@ -3314,7 +3333,7 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="10">
         <v>41745</v>
       </c>
@@ -3327,7 +3346,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
+      <c r="A125" s="46"/>
       <c r="B125" s="10">
         <v>41746</v>
       </c>
@@ -3340,7 +3359,7 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="10">
         <v>41747</v>
       </c>
@@ -3353,7 +3372,7 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="33">
+      <c r="A127" s="48">
         <v>25</v>
       </c>
       <c r="B127" s="19">
@@ -3368,7 +3387,7 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="49"/>
       <c r="B128" s="19">
         <v>41751</v>
       </c>
@@ -3381,7 +3400,7 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="19">
         <v>41752</v>
       </c>
@@ -3394,7 +3413,7 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
+      <c r="A130" s="49"/>
       <c r="B130" s="19">
         <v>41753</v>
       </c>
@@ -3407,7 +3426,7 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
+      <c r="A131" s="50"/>
       <c r="B131" s="19">
         <v>41754</v>
       </c>
@@ -3420,7 +3439,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="36">
+      <c r="A132" s="45">
         <v>26</v>
       </c>
       <c r="B132" s="10">
@@ -3435,7 +3454,7 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
+      <c r="A133" s="46"/>
       <c r="B133" s="10">
         <v>41758</v>
       </c>
@@ -3448,7 +3467,7 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="46"/>
       <c r="B134" s="10">
         <v>41759</v>
       </c>
@@ -3461,7 +3480,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="46"/>
       <c r="B135" s="10">
         <v>41760</v>
       </c>
@@ -3474,7 +3493,7 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="10">
         <v>41761</v>
       </c>
@@ -3487,7 +3506,7 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="33">
+      <c r="A137" s="48">
         <v>27</v>
       </c>
       <c r="B137" s="19">
@@ -3502,7 +3521,7 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
+      <c r="A138" s="49"/>
       <c r="B138" s="19">
         <v>41765</v>
       </c>
@@ -3515,7 +3534,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
+      <c r="A139" s="49"/>
       <c r="B139" s="19">
         <v>41766</v>
       </c>
@@ -3528,7 +3547,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
+      <c r="A140" s="49"/>
       <c r="B140" s="19">
         <v>41767</v>
       </c>
@@ -3541,7 +3560,7 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="50"/>
       <c r="B141" s="19">
         <v>41768</v>
       </c>
@@ -3554,7 +3573,7 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="36">
+      <c r="A142" s="45">
         <v>28</v>
       </c>
       <c r="B142" s="10">
@@ -3569,7 +3588,7 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="46"/>
       <c r="B143" s="10">
         <v>41772</v>
       </c>
@@ -3582,7 +3601,7 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
+      <c r="A144" s="46"/>
       <c r="B144" s="10">
         <v>41773</v>
       </c>
@@ -3595,7 +3614,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
+      <c r="A145" s="46"/>
       <c r="B145" s="10">
         <v>41774</v>
       </c>
@@ -3608,7 +3627,7 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="10">
         <v>41775</v>
       </c>
@@ -3621,7 +3640,7 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="33">
+      <c r="A147" s="48">
         <v>29</v>
       </c>
       <c r="B147" s="19">
@@ -3636,7 +3655,7 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="19">
         <v>41779</v>
       </c>
@@ -3649,7 +3668,7 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="19">
         <v>41780</v>
       </c>
@@ -3662,7 +3681,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
+      <c r="A150" s="49"/>
       <c r="B150" s="19">
         <v>41781</v>
       </c>
@@ -3675,7 +3694,7 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="50"/>
       <c r="B151" s="19">
         <v>41782</v>
       </c>
@@ -3688,7 +3707,7 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="39">
+      <c r="A152" s="66">
         <v>30</v>
       </c>
       <c r="B152" s="10">
@@ -3703,7 +3722,7 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
+      <c r="A153" s="67"/>
       <c r="B153" s="10">
         <v>41786</v>
       </c>
@@ -3716,7 +3735,7 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="67"/>
       <c r="B154" s="10">
         <v>41787</v>
       </c>
@@ -3729,7 +3748,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="67"/>
       <c r="B155" s="10">
         <v>41788</v>
       </c>
@@ -3742,7 +3761,7 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
+      <c r="A156" s="68"/>
       <c r="B156" s="10">
         <v>41789</v>
       </c>
@@ -3931,6 +3950,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -3947,26 +3986,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
